--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>TAX</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>FIXED_TAX</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -512,6 +517,9 @@
       <c r="J2" t="n">
         <v>827.83</v>
       </c>
+      <c r="K2" t="n">
+        <v>1034.7875</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -543,6 +551,9 @@
       </c>
       <c r="J3" t="n">
         <v>962.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1202.875</v>
       </c>
     </row>
     <row r="4">
@@ -576,6 +587,9 @@
       <c r="J4" t="n">
         <v>967.03</v>
       </c>
+      <c r="K4" t="n">
+        <v>1208.7875</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -608,6 +622,9 @@
       <c r="J5" t="n">
         <v>994.78</v>
       </c>
+      <c r="K5" t="n">
+        <v>1243.475</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -640,6 +657,9 @@
       <c r="J6" t="n">
         <v>1079.34</v>
       </c>
+      <c r="K6" t="n">
+        <v>1079.34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -672,6 +692,9 @@
       <c r="J7" t="n">
         <v>922.48</v>
       </c>
+      <c r="K7" t="n">
+        <v>1153.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,6 +727,9 @@
       <c r="J8" t="n">
         <v>1022.64</v>
       </c>
+      <c r="K8" t="n">
+        <v>1278.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,6 +762,9 @@
       <c r="J9" t="n">
         <v>1015.31</v>
       </c>
+      <c r="K9" t="n">
+        <v>1269.1375</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -768,6 +797,9 @@
       <c r="J10" t="n">
         <v>1125.17</v>
       </c>
+      <c r="K10" t="n">
+        <v>1125.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,6 +832,9 @@
       <c r="J11" t="n">
         <v>1038.97</v>
       </c>
+      <c r="K11" t="n">
+        <v>1298.7125</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,6 +867,9 @@
       <c r="J12" t="n">
         <v>1097.17</v>
       </c>
+      <c r="K12" t="n">
+        <v>1097.17</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -864,6 +902,9 @@
       <c r="J13" t="n">
         <v>1053.07</v>
       </c>
+      <c r="K13" t="n">
+        <v>1316.3375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -896,6 +937,9 @@
       <c r="J14" t="n">
         <v>1039.15</v>
       </c>
+      <c r="K14" t="n">
+        <v>1298.9375</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -928,6 +972,9 @@
       <c r="J15" t="n">
         <v>985.22</v>
       </c>
+      <c r="K15" t="n">
+        <v>1231.525</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,6 +1007,9 @@
       <c r="J16" t="n">
         <v>1121.89</v>
       </c>
+      <c r="K16" t="n">
+        <v>1402.3625</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -992,6 +1042,9 @@
       <c r="J17" t="n">
         <v>1087.31</v>
       </c>
+      <c r="K17" t="n">
+        <v>1359.1375</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1024,6 +1077,9 @@
       <c r="J18" t="n">
         <v>1076.21</v>
       </c>
+      <c r="K18" t="n">
+        <v>1345.2625</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1056,6 +1112,9 @@
       <c r="J19" t="n">
         <v>909.36</v>
       </c>
+      <c r="K19" t="n">
+        <v>1136.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1088,6 +1147,9 @@
       <c r="J20" t="n">
         <v>1077.07</v>
       </c>
+      <c r="K20" t="n">
+        <v>1346.3375</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1120,6 +1182,9 @@
       <c r="J21" t="n">
         <v>1145.5</v>
       </c>
+      <c r="K21" t="n">
+        <v>1145.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1152,6 +1217,9 @@
       <c r="J22" t="n">
         <v>1136.7</v>
       </c>
+      <c r="K22" t="n">
+        <v>1420.875</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1184,6 +1252,9 @@
       <c r="J23" t="n">
         <v>1111.8</v>
       </c>
+      <c r="K23" t="n">
+        <v>1389.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1216,6 +1287,9 @@
       <c r="J24" t="n">
         <v>1025.89</v>
       </c>
+      <c r="K24" t="n">
+        <v>1282.3625</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1248,6 +1322,9 @@
       <c r="J25" t="n">
         <v>998.11</v>
       </c>
+      <c r="K25" t="n">
+        <v>1247.6375</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1280,6 +1357,9 @@
       <c r="J26" t="n">
         <v>1058.72</v>
       </c>
+      <c r="K26" t="n">
+        <v>1323.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1312,6 +1392,9 @@
       <c r="J27" t="n">
         <v>1117.92</v>
       </c>
+      <c r="K27" t="n">
+        <v>1397.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1344,6 +1427,9 @@
       <c r="J28" t="n">
         <v>1000.4</v>
       </c>
+      <c r="K28" t="n">
+        <v>1250.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1376,6 +1462,9 @@
       <c r="J29" t="n">
         <v>1202.17</v>
       </c>
+      <c r="K29" t="n">
+        <v>1202.17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1408,6 +1497,9 @@
       <c r="J30" t="n">
         <v>1045.66</v>
       </c>
+      <c r="K30" t="n">
+        <v>1307.075</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1440,6 +1532,9 @@
       <c r="J31" t="n">
         <v>1160.04</v>
       </c>
+      <c r="K31" t="n">
+        <v>1160.04</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1472,6 +1567,9 @@
       <c r="J32" t="n">
         <v>1086.12</v>
       </c>
+      <c r="K32" t="n">
+        <v>1357.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1504,6 +1602,9 @@
       <c r="J33" t="n">
         <v>1116.16</v>
       </c>
+      <c r="K33" t="n">
+        <v>1395.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1536,6 +1637,9 @@
       <c r="J34" t="n">
         <v>1009.46</v>
       </c>
+      <c r="K34" t="n">
+        <v>1261.825</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1568,6 +1672,9 @@
       <c r="J35" t="n">
         <v>1031.35</v>
       </c>
+      <c r="K35" t="n">
+        <v>1289.1875</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1600,6 +1707,9 @@
       <c r="J36" t="n">
         <v>1116.73</v>
       </c>
+      <c r="K36" t="n">
+        <v>1395.9125</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1632,6 +1742,9 @@
       <c r="J37" t="n">
         <v>944.24</v>
       </c>
+      <c r="K37" t="n">
+        <v>1180.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1664,6 +1777,9 @@
       <c r="J38" t="n">
         <v>1104.12</v>
       </c>
+      <c r="K38" t="n">
+        <v>1380.15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1696,6 +1812,9 @@
       <c r="J39" t="n">
         <v>1196.84</v>
       </c>
+      <c r="K39" t="n">
+        <v>1196.84</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1728,6 +1847,9 @@
       <c r="J40" t="n">
         <v>1089.17</v>
       </c>
+      <c r="K40" t="n">
+        <v>1361.4625</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1760,6 +1882,9 @@
       <c r="J41" t="n">
         <v>1059.94</v>
       </c>
+      <c r="K41" t="n">
+        <v>1324.925</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1792,6 +1917,9 @@
       <c r="J42" t="n">
         <v>1127.22</v>
       </c>
+      <c r="K42" t="n">
+        <v>1409.025</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1824,6 +1952,9 @@
       <c r="J43" t="n">
         <v>1027.51</v>
       </c>
+      <c r="K43" t="n">
+        <v>1284.3875</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1856,6 +1987,9 @@
       <c r="J44" t="n">
         <v>1043.86</v>
       </c>
+      <c r="K44" t="n">
+        <v>1304.825</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1888,6 +2022,9 @@
       <c r="J45" t="n">
         <v>1139.63</v>
       </c>
+      <c r="K45" t="n">
+        <v>1424.5375</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1920,6 +2057,9 @@
       <c r="J46" t="n">
         <v>1047.9</v>
       </c>
+      <c r="K46" t="n">
+        <v>1309.875</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1952,6 +2092,9 @@
       <c r="J47" t="n">
         <v>1187.48</v>
       </c>
+      <c r="K47" t="n">
+        <v>1187.48</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1984,6 +2127,9 @@
       <c r="J48" t="n">
         <v>1100.93</v>
       </c>
+      <c r="K48" t="n">
+        <v>1376.1625</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2016,6 +2162,9 @@
       <c r="J49" t="n">
         <v>1079.86</v>
       </c>
+      <c r="K49" t="n">
+        <v>1349.825</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2048,6 +2197,9 @@
       <c r="J50" t="n">
         <v>1098.65</v>
       </c>
+      <c r="K50" t="n">
+        <v>1373.3125</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2080,6 +2232,9 @@
       <c r="J51" t="n">
         <v>1107.36</v>
       </c>
+      <c r="K51" t="n">
+        <v>1384.2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2112,6 +2267,9 @@
       <c r="J52" t="n">
         <v>1130.13</v>
       </c>
+      <c r="K52" t="n">
+        <v>1412.6625</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2144,6 +2302,9 @@
       <c r="J53" t="n">
         <v>1152.85</v>
       </c>
+      <c r="K53" t="n">
+        <v>1441.0625</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2176,6 +2337,9 @@
       <c r="J54" t="n">
         <v>1181.91</v>
       </c>
+      <c r="K54" t="n">
+        <v>1477.3875</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2208,6 +2372,9 @@
       <c r="J55" t="n">
         <v>1205.05</v>
       </c>
+      <c r="K55" t="n">
+        <v>1506.3125</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2240,6 +2407,9 @@
       <c r="J56" t="n">
         <v>1176.44</v>
       </c>
+      <c r="K56" t="n">
+        <v>1470.55</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2272,6 +2442,9 @@
       <c r="J57" t="n">
         <v>1073.49</v>
       </c>
+      <c r="K57" t="n">
+        <v>1341.8625</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2304,6 +2477,9 @@
       <c r="J58" t="n">
         <v>1126.81</v>
       </c>
+      <c r="K58" t="n">
+        <v>1408.5125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2336,6 +2512,9 @@
       <c r="J59" t="n">
         <v>1293.42</v>
       </c>
+      <c r="K59" t="n">
+        <v>1293.42</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2368,6 +2547,9 @@
       <c r="J60" t="n">
         <v>1215.69</v>
       </c>
+      <c r="K60" t="n">
+        <v>1519.6125</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2400,6 +2582,9 @@
       <c r="J61" t="n">
         <v>1290.08</v>
       </c>
+      <c r="K61" t="n">
+        <v>1290.08</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2432,6 +2617,9 @@
       <c r="J62" t="n">
         <v>1225.36</v>
       </c>
+      <c r="K62" t="n">
+        <v>1531.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2464,6 +2652,9 @@
       <c r="J63" t="n">
         <v>1137.31</v>
       </c>
+      <c r="K63" t="n">
+        <v>1421.6375</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2496,6 +2687,9 @@
       <c r="J64" t="n">
         <v>1170.4</v>
       </c>
+      <c r="K64" t="n">
+        <v>1463</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2528,6 +2722,9 @@
       <c r="J65" t="n">
         <v>1211.66</v>
       </c>
+      <c r="K65" t="n">
+        <v>1514.575</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,6 +2757,9 @@
       <c r="J66" t="n">
         <v>1093.42</v>
       </c>
+      <c r="K66" t="n">
+        <v>1366.775</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2592,6 +2792,9 @@
       <c r="J67" t="n">
         <v>1248.44</v>
       </c>
+      <c r="K67" t="n">
+        <v>1560.55</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2624,6 +2827,9 @@
       <c r="J68" t="n">
         <v>1162.02</v>
       </c>
+      <c r="K68" t="n">
+        <v>1452.525</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2656,6 +2862,9 @@
       <c r="J69" t="n">
         <v>1242.29</v>
       </c>
+      <c r="K69" t="n">
+        <v>1552.8625</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2688,6 +2897,9 @@
       <c r="J70" t="n">
         <v>1411.57</v>
       </c>
+      <c r="K70" t="n">
+        <v>1411.57</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2720,6 +2932,9 @@
       <c r="J71" t="n">
         <v>1188.62</v>
       </c>
+      <c r="K71" t="n">
+        <v>1485.775</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2752,6 +2967,9 @@
       <c r="J72" t="n">
         <v>1281.28</v>
       </c>
+      <c r="K72" t="n">
+        <v>1601.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2784,6 +3002,9 @@
       <c r="J73" t="n">
         <v>1184.72</v>
       </c>
+      <c r="K73" t="n">
+        <v>1480.9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2816,6 +3037,9 @@
       <c r="J74" t="n">
         <v>1258.26</v>
       </c>
+      <c r="K74" t="n">
+        <v>1572.825</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2848,6 +3072,9 @@
       <c r="J75" t="n">
         <v>1260.81</v>
       </c>
+      <c r="K75" t="n">
+        <v>1576.0125</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2880,6 +3107,9 @@
       <c r="J76" t="n">
         <v>1289.62</v>
       </c>
+      <c r="K76" t="n">
+        <v>1612.025</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2911,6 +3141,9 @@
       </c>
       <c r="J77" t="n">
         <v>1297.84</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1622.3</v>
       </c>
     </row>
   </sheetData>
